--- a/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q20C-Provincia-trans_orig.xlsx
@@ -679,7 +679,7 @@
         <v>8.404864950431691</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>7.260005501148911</v>
+        <v>7.260005501148912</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>1.980700080232392</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.909282285407571</v>
+        <v>3.069497998238093</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0.8284709864526183</v>
@@ -715,25 +715,25 @@
       </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="5" t="n">
-        <v>2.248393148168533</v>
+        <v>2.254287227514378</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.359636872972437</v>
+        <v>5.271331885204395</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.313313704199892</v>
+        <v>1.448310578043048</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3.010118381937275</v>
+        <v>3.044536751311224</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3.789169650233402</v>
+        <v>3.735033962627908</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.25248534279612</v>
+        <v>3.323040687478587</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.856462306019492</v>
+        <v>8.337175389911639</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>5.452380098490359</v>
@@ -757,25 +757,25 @@
       </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="5" t="n">
-        <v>12.73127917821587</v>
+        <v>12.07348548836272</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.48755360440085</v>
+        <v>13.48514344339027</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>28.07798902385738</v>
+        <v>24.65872456765345</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>3</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8.319582956640218</v>
+        <v>8.234752096526629</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10.46158193856507</v>
+        <v>9.601847301799054</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>18.13452687971322</v>
+        <v>18.7802646116596</v>
       </c>
     </row>
     <row r="7">
@@ -799,7 +799,7 @@
         <v>9.702081490885723</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.718574814203588</v>
+        <v>6.718574814203589</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>5.518382188565569</v>
@@ -823,7 +823,7 @@
         <v>6.654773488562227</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.379468527433403</v>
+        <v>7.379468527433401</v>
       </c>
     </row>
     <row r="8">
@@ -837,37 +837,37 @@
         <v>0.5883536402383174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.395388631229117</v>
+        <v>2.465848290373314</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.523649154125739</v>
+        <v>3.509336097755227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.524715053941176</v>
+        <v>2.563420648306078</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.868756217157106</v>
+        <v>2.951462586950536</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.4229637711473</v>
+        <v>2.486453991830595</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.927568912801491</v>
+        <v>2.15936658643587</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>2.245321120574841</v>
+        <v>2.241870427071619</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>2.530549224358751</v>
+        <v>2.641259930825022</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3.173106230857343</v>
+        <v>3.11033410573972</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3.583318698098148</v>
+        <v>3.559500098001731</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>3.424690404106998</v>
+        <v>3.258886584996008</v>
       </c>
     </row>
     <row r="9">
@@ -878,40 +878,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.309837648626416</v>
+        <v>5.19265679084201</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.04896704439323</v>
+        <v>15.06118962213701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>25.7366320536979</v>
+        <v>27.46573231717301</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14.53061846604</v>
+        <v>16.20501446197701</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>8.619146967438365</v>
+        <v>8.545435526513884</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.265560381179455</v>
+        <v>6.284688784676503</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>5.759553101339234</v>
+        <v>5.895902637552595</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>26.06942935861963</v>
+        <v>26.85600047053636</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>7.146116437136365</v>
+        <v>6.95471079795275</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9.618388856076201</v>
+        <v>9.456749574639112</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15.44109713526434</v>
+        <v>16.9638352283563</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>15.67264422100627</v>
+        <v>15.58790046236565</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         <v>3.3654728160987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7.822929862308846</v>
+        <v>7.822929862308847</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>2.504425112880863</v>
@@ -947,7 +947,7 @@
         <v>9.547057431170675</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>5.314409746636149</v>
+        <v>5.314409746636148</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>2.340603609012867</v>
@@ -959,7 +959,7 @@
         <v>8.273830025312234</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>6.762368996690938</v>
+        <v>6.762368996690939</v>
       </c>
     </row>
     <row r="11">
@@ -971,37 +971,37 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>1.000112586913681</v>
+        <v>1.000200823861855</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.653161402597367</v>
+        <v>3.721556219729668</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2</v>
+        <v>1.9223898282442</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.520825500103381</v>
+        <v>3.908182211777282</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.697633558990578</v>
+        <v>2.72210598252524</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>2</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.842709941252494</v>
+        <v>1.994499030130251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>3.881967159241111</v>
+        <v>3.781928000764076</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>3.998722226207464</v>
+        <v>4.120835961956353</v>
       </c>
     </row>
     <row r="12">
@@ -1013,37 +1013,37 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>4.799848648462707</v>
+        <v>4.993449177955926</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19.51752402480551</v>
+        <v>19.49461406983335</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>3</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.508964430608207</v>
+        <v>4.261820616084301</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>17.93145563763147</v>
+        <v>18.3980188079044</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>10.09675075129732</v>
+        <v>9.93439340737924</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>3</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4.049049372595944</v>
+        <v>4.037731829442424</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15.62596141487006</v>
+        <v>15.72541584721355</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>13.99546487433792</v>
+        <v>14.31672193196554</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>5.837375870891129</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>7.595826588277937</v>
+        <v>7.595826588277935</v>
       </c>
     </row>
     <row r="14">
@@ -1101,37 +1101,37 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>2.7836166272396</v>
+        <v>2.576523135424925</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.400164107483291</v>
+        <v>4.424732042765402</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.898922463657048</v>
+        <v>4.583825800453133</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8614166869436153</v>
+        <v>0.967886961382688</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>2.447255860402141</v>
+        <v>2.54957647249639</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>3.003154091860696</v>
+        <v>3.009056305292403</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.638346014629527</v>
+        <v>1.58150082572478</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.8614166869436153</v>
+        <v>0.967886961382688</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3.174266693983444</v>
+        <v>3.085864802498452</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3.816509770700471</v>
+        <v>3.863560481057478</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>4.529825407371296</v>
+        <v>4.41027151462268</v>
       </c>
     </row>
     <row r="15">
@@ -1143,37 +1143,37 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>6.760862611929876</v>
+        <v>6.946183622200119</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>9.302604018352753</v>
+        <v>9.505299192537711</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16.84877783708809</v>
+        <v>17.23645369740213</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.994174101937958</v>
+        <v>5.228690055768063</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>9.103064175682276</v>
+        <v>8.654419001517386</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>10.84565340114233</v>
+        <v>10.72975002123653</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>6.884064872877818</v>
+        <v>6.863306219306145</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>4.994174101937958</v>
+        <v>5.228690055768063</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>7.75127807944791</v>
+        <v>7.745142137361173</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8.544982510753856</v>
+        <v>8.333321708185322</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>13.79290253199153</v>
+        <v>12.91676924420587</v>
       </c>
     </row>
     <row r="16">
@@ -1235,35 +1235,35 @@
         <v>2.340238720506405</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.041670266898308</v>
+        <v>2.042369302928654</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>1.164621628185737</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.955383486020504</v>
+        <v>2.955383486020503</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>2.388418335643347</v>
+        <v>2.587166788437868</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.221022539920594</v>
+        <v>2</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2</v>
+        <v>2.230032992587135</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2.708794828540581</v>
+        <v>2.537511003746796</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2.764499985847361</v>
+        <v>2.817860428578887</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>3.708674607470298</v>
+        <v>4.001464616601325</v>
       </c>
     </row>
     <row r="18">
@@ -1277,7 +1277,7 @@
         <v>4.999999999999999</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.313441418664784</v>
+        <v>8.248394608698877</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>15.22999625533455</v>
@@ -1287,7 +1287,7 @@
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>6.551150598984812</v>
+        <v>6.388419271014744</v>
       </c>
       <c r="I18" s="5" t="n">
         <v>15</v>
@@ -1296,16 +1296,16 @@
         <v>12</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.973830397746429</v>
+        <v>4.516122542425698</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6.27865372194298</v>
+        <v>6.270922669982615</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14.16778023514092</v>
+        <v>14.72315366586996</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>19.68994214433376</v>
+        <v>19.11582952955794</v>
       </c>
     </row>
     <row r="19">
@@ -1341,7 +1341,7 @@
         <v>2.756155311665599</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>7.027587973476278</v>
+        <v>7.027587973476279</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>4.755392777960218</v>
@@ -1364,40 +1364,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.513218545413776</v>
+        <v>1.507728538916659</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.802640424632999</v>
+        <v>2.014639467677084</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7.471615544100803</v>
+        <v>8.066389367690453</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.449174338294581</v>
+        <v>1.442908445664027</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>1.984878540331698</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.534084023454957</v>
+        <v>1.525039080498102</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>3.867667710460227</v>
+        <v>4.052187948309056</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>2.121713609852803</v>
+        <v>2.064574200423834</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.181338290965322</v>
+        <v>1.442095243171025</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2.005530016604767</v>
+        <v>1.989681218703985</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>7.292043501650711</v>
+        <v>7.623612278867573</v>
       </c>
     </row>
     <row r="21">
@@ -1414,34 +1414,34 @@
         <v>17.99743646442169</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.34335563586178</v>
+        <v>5.384292560812256</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>27.7870870487934</v>
+        <v>29.16359047648234</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.041618009641422</v>
+        <v>5.362337988093013</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>8.308079815854677</v>
+        <v>7.579491693549952</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>5.221457858455832</v>
+        <v>5.14413000508867</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>12.44632723781812</v>
+        <v>15.72047360037606</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>13.33000615184226</v>
+        <v>11.61087892761303</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12.62382851407861</v>
+        <v>12.42231537151689</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4.763580134182172</v>
+        <v>4.653158656448849</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>22.77313571236978</v>
+        <v>21.58838244637758</v>
       </c>
     </row>
     <row r="22">
@@ -1465,7 +1465,7 @@
         <v>16.28158645923946</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.154272238600047</v>
+        <v>4.154272238600046</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>4.013799899303726</v>
@@ -1477,7 +1477,7 @@
         <v>6.168898003398378</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>6.415312131236556</v>
+        <v>6.415312131236558</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>7.523873025628435</v>
@@ -1489,7 +1489,7 @@
         <v>10.6892020349729</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>5.679631523212192</v>
+        <v>5.679631523212194</v>
       </c>
     </row>
     <row r="23">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.143209437680724</v>
+        <v>7.630640995955554</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.924777036641239</v>
+        <v>5.049366245344329</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.919249516634536</v>
+        <v>4.774400371574426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2.584384053326215</v>
+        <v>2.610026164828446</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.662163886094502</v>
+        <v>2.726417290543087</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.694054616931065</v>
+        <v>4.852875446203709</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.311151525329885</v>
+        <v>4.461701885615266</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>4.396451908508777</v>
+        <v>4.467403056182376</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.069552826150155</v>
+        <v>5.191130158863138</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5.668415476173347</v>
+        <v>5.709815580328713</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5.585767149615283</v>
+        <v>5.839946959007789</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>4.204561145180563</v>
+        <v>4.197806259957452</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>23.51487351912633</v>
+        <v>26.33689895219645</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.52087279238324</v>
+        <v>16.90061571924456</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48.59679764748458</v>
+        <v>50.97779467970184</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.501644026793098</v>
+        <v>8.378833934652203</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.967671897225382</v>
+        <v>5.80994170397543</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.67335981308563</v>
+        <v>11.69791180391866</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.52599912041631</v>
+        <v>8.626262496470334</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.56010493876096</v>
+        <v>9.378949509622183</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.99299130074872</v>
+        <v>14.06658883432011</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11.6613974489</v>
+        <v>12.04111549303135</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24.8975613047375</v>
+        <v>30.18872858497338</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>8.066173484122775</v>
+        <v>8.168729956458549</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>6.514898079723385</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2.975698043422406</v>
+        <v>2.975698043422407</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>7.236897602890437</v>
@@ -1636,40 +1636,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.148558056334772</v>
+        <v>2.018315238804939</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>1.554973105501526</v>
+        <v>1.554818683781234</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.858475668805112</v>
+        <v>3.753555617168149</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1.628562578841478</v>
+        <v>1.512041929727967</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.543880472945026</v>
+        <v>3.718351072091333</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>4.430924898260499</v>
+        <v>4.615968855145539</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>3.945509186874455</v>
+        <v>4.029536207267435</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>1.277266166636215</v>
+        <v>1.383843761829347</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>3.746836563775296</v>
+        <v>3.75900929194301</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4.268834674988848</v>
+        <v>4.147413416396185</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>4.523931657680365</v>
+        <v>4.628397512812782</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>1.828737151980409</v>
+        <v>1.844128308859186</v>
       </c>
     </row>
     <row r="27">
@@ -1680,40 +1680,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>16.83626335298425</v>
+        <v>16.85632496885899</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>11.65721079716113</v>
+        <v>11.76078721497658</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13.07369865296391</v>
+        <v>12.77185181373822</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.534795604888449</v>
+        <v>5.370406127910041</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>14.32266078107718</v>
+        <v>14.42227503196074</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>11.81552908013738</v>
+        <v>12.06329261520864</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>14.77508196229816</v>
+        <v>16.08466757398391</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>4.232056634363505</v>
+        <v>4.29799712621665</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>11.46879817993221</v>
+        <v>11.99843893543125</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>10.37440832905431</v>
+        <v>9.941742116393668</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11.50752573693902</v>
+        <v>11.52352599323641</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>4.516104829744472</v>
+        <v>4.396310180077673</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>7.082196950616122</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>6.838856518604161</v>
+        <v>6.838856518604159</v>
       </c>
     </row>
     <row r="29">
@@ -1772,40 +1772,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.89299966298296</v>
+        <v>5.139572512069681</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.063993603897839</v>
+        <v>4.055432992212985</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.533471897069924</v>
+        <v>5.568860939153818</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>5.508443469150698</v>
+        <v>5.540522790050814</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.4725717315461</v>
+        <v>3.45497851759894</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.472040841686251</v>
+        <v>4.470541497295573</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.958348351847587</v>
+        <v>4.860206877520444</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.595760367905418</v>
+        <v>4.556993525985324</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.400961894915395</v>
+        <v>4.381933293559089</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>4.603107830476437</v>
+        <v>4.564397349359282</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5.667537661511813</v>
+        <v>5.771761373100526</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>5.507962428046927</v>
+        <v>5.553277181593646</v>
       </c>
     </row>
     <row r="30">
@@ -1816,40 +1816,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>12.43175847183978</v>
+        <v>12.65488297389323</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.57447700555607</v>
+        <v>7.540923239571343</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14.21244606393139</v>
+        <v>13.34155123036722</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.514824287719</v>
+        <v>10.58868311399046</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>6.033241304464847</v>
+        <v>6.151652195921756</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.016745122395586</v>
+        <v>6.997508564011495</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.142741666847714</v>
+        <v>7.997831207279748</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.032154309919983</v>
+        <v>8.916436239811325</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.732130417852725</v>
+        <v>7.618825962286962</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6.647671056948028</v>
+        <v>6.651410381990642</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>9.92363622916168</v>
+        <v>9.915048830207882</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>8.788705302190841</v>
+        <v>9.009110595686836</v>
       </c>
     </row>
     <row r="31">
